--- a/Data/abbreviations.xlsx
+++ b/Data/abbreviations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcabe\Desktop\MSc Thesis\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcabe\Desktop\MSc Thesis\Stats\DataAnalysis\DataAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -138,13 +138,25 @@
   </si>
   <si>
     <t>Hypothesis [Number]</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>SHA</t>
+  </si>
+  <si>
+    <t>Smart Home Assistant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +166,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -179,9 +197,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -462,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,146 +503,162 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
